--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N2">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q2">
-        <v>3264.826940530049</v>
+        <v>8496.124731139991</v>
       </c>
       <c r="R2">
-        <v>3264.826940530049</v>
+        <v>76465.12258025992</v>
       </c>
       <c r="S2">
-        <v>0.1002971572906916</v>
+        <v>0.1696546448005808</v>
       </c>
       <c r="T2">
-        <v>0.1002971572906916</v>
+        <v>0.1696546448005809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N3">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P3">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q3">
-        <v>6516.035031746464</v>
+        <v>15316.38317073069</v>
       </c>
       <c r="R3">
-        <v>6516.035031746464</v>
+        <v>137847.4485365762</v>
       </c>
       <c r="S3">
-        <v>0.2001759365489151</v>
+        <v>0.3058447973269396</v>
       </c>
       <c r="T3">
-        <v>0.2001759365489151</v>
+        <v>0.3058447973269396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N4">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P4">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q4">
-        <v>1727.019569942495</v>
+        <v>4114.83488945048</v>
       </c>
       <c r="R4">
-        <v>1727.019569942495</v>
+        <v>37033.51400505432</v>
       </c>
       <c r="S4">
-        <v>0.05305492652621373</v>
+        <v>0.08216697302289828</v>
       </c>
       <c r="T4">
-        <v>0.05305492652621373</v>
+        <v>0.08216697302289828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N5">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O5">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P5">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q5">
-        <v>3361.454438587197</v>
+        <v>3803.012730730996</v>
       </c>
       <c r="R5">
-        <v>3361.454438587197</v>
+        <v>34227.11457657896</v>
       </c>
       <c r="S5">
-        <v>0.1032656035660309</v>
+        <v>0.07594036039036386</v>
       </c>
       <c r="T5">
-        <v>0.1032656035660309</v>
+        <v>0.07594036039036386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N6">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P6">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q6">
-        <v>6708.88695738886</v>
+        <v>6855.87865412931</v>
       </c>
       <c r="R6">
-        <v>6708.88695738886</v>
+        <v>61702.90788716379</v>
       </c>
       <c r="S6">
-        <v>0.2061004465680672</v>
+        <v>0.1369014338500803</v>
       </c>
       <c r="T6">
-        <v>0.2061004465680672</v>
+        <v>0.1369014338500803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N7">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P7">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q7">
-        <v>1778.133329776939</v>
+        <v>1841.871437230716</v>
       </c>
       <c r="R7">
-        <v>1778.133329776939</v>
+        <v>16576.84293507644</v>
       </c>
       <c r="S7">
-        <v>0.05462516743123444</v>
+        <v>0.03677936169020724</v>
       </c>
       <c r="T7">
-        <v>0.05462516743123444</v>
+        <v>0.03677936169020724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N8">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O8">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P8">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q8">
-        <v>2608.706379849362</v>
+        <v>2936.000427593524</v>
       </c>
       <c r="R8">
-        <v>2608.706379849362</v>
+        <v>26424.00384834172</v>
       </c>
       <c r="S8">
-        <v>0.08014079731359469</v>
+        <v>0.05862744785891321</v>
       </c>
       <c r="T8">
-        <v>0.08014079731359469</v>
+        <v>0.05862744785891322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N9">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P9">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q9">
-        <v>5206.53084168658</v>
+        <v>5292.872805130974</v>
       </c>
       <c r="R9">
-        <v>5206.53084168658</v>
+        <v>47635.85524617877</v>
       </c>
       <c r="S9">
-        <v>0.1599472965273608</v>
+        <v>0.1056905923753621</v>
       </c>
       <c r="T9">
-        <v>0.1599472965273608</v>
+        <v>0.1056905923753621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N10">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P10">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q10">
-        <v>1379.946641062159</v>
+        <v>1421.96087948468</v>
       </c>
       <c r="R10">
-        <v>1379.946641062159</v>
+        <v>12797.64791536212</v>
       </c>
       <c r="S10">
-        <v>0.04239266822789165</v>
+        <v>0.02839438868465454</v>
       </c>
       <c r="T10">
-        <v>0.04239266822789165</v>
+        <v>0.02839438868465454</v>
       </c>
     </row>
   </sheetData>
